--- a/Wholesale.xlsx
+++ b/Wholesale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brianakuo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E9AEB34-1976-5543-A5A2-BB1EE423E106}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FC2305-B538-404B-8521-FF4F9530D2CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{2A82B332-4730-4B79-8AF7-8AE2490DF5E9}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Lay's</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">Woodside </t>
+  </si>
+  <si>
+    <t>Store</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -507,6 +510,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
